--- a/v7.1/afr/src/AFR LAN账号列表.xlsx
+++ b/v7.1/afr/src/AFR LAN账号列表.xlsx
@@ -719,7 +719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,10 +741,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1071,110 +1071,110 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1201,13 +1201,13 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1300,13 +1300,13 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1344,13 +1344,13 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1410,13 +1410,13 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1443,13 +1443,13 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1597,13 +1597,13 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1619,13 +1619,13 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1729,13 +1729,13 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2015,13 +2015,13 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2125,13 +2125,13 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>209</v>
       </c>
     </row>
